--- a/examples/AutoConfig/Data/input/excel/config_base.xlsx
+++ b/examples/AutoConfig/Data/input/excel/config_base.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
-  <si>
-    <t>int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>int_val</t>
   </si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>int_vec</t>
-  </si>
-  <si>
-    <t>int_vec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,10 +37,6 @@
     <t>int_float_map_vec</t>
   </si>
   <si>
-    <t>float_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[int]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +191,22 @@
   </si>
   <si>
     <t>1:100|101|102;2:201|202|213</t>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float;group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigEx.ConfigExtra:extra_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,13 +556,16 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,64 +578,69 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" t="s">
         <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +651,16 @@
         <v>1023</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +671,16 @@
         <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +691,16 @@
         <v>3023</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,16 +711,16 @@
         <v>4023</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +731,16 @@
         <v>5023</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +751,16 @@
         <v>6023</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +771,16 @@
         <v>7023</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,16 +791,16 @@
         <v>8023</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +811,16 @@
         <v>9023</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +831,16 @@
         <v>10023</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -837,16 +851,16 @@
         <v>11023</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/examples/AutoConfig/Data/input/excel/config_base.xlsx
+++ b/examples/AutoConfig/Data/input/excel/config_base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>int_val</t>
   </si>
@@ -206,6 +206,14 @@
   </si>
   <si>
     <t>ConfigEx.ConfigExtra:extra_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;key;group;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -569,7 +577,7 @@
     <col min="6" max="6" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1">
         <v>11</v>
       </c>
@@ -578,12 +586,12 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -602,8 +610,11 @@
       <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +633,11 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -642,8 +656,11 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1024</v>
       </c>
@@ -662,8 +679,11 @@
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>3024</v>
       </c>
@@ -682,8 +702,11 @@
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>5024</v>
       </c>
@@ -702,8 +725,11 @@
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>7024</v>
       </c>
@@ -722,8 +748,11 @@
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>9024</v>
       </c>
@@ -742,8 +771,11 @@
       <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1">
+        <v>8678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>11024</v>
       </c>
@@ -762,8 +794,11 @@
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1">
+        <v>10789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>13024</v>
       </c>
@@ -782,8 +817,11 @@
       <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>15024</v>
       </c>
@@ -802,8 +840,11 @@
       <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <v>15011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>17024</v>
       </c>
@@ -822,8 +863,11 @@
       <c r="F21" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <v>17122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19024</v>
       </c>
@@ -842,8 +886,11 @@
       <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21024</v>
       </c>
@@ -861,6 +908,9 @@
       </c>
       <c r="F23" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21344</v>
       </c>
     </row>
   </sheetData>
